--- a/dialogsData.xlsx
+++ b/dialogsData.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\FattoPrizzerva2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\GitHub\FattoPrizzerva2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8686"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="QA Structures" sheetId="1" r:id="rId1"/>
+    <sheet name="Speach Structures" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,43 +25,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
-  <si>
-    <t>Objject ID</t>
-  </si>
-  <si>
-    <t>Object Type</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CAST</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>cat text</t>
-  </si>
-  <si>
-    <t>cast text</t>
-  </si>
-  <si>
-    <t>eng text</t>
-  </si>
-  <si>
-    <t>A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>title_CAT</t>
+  </si>
+  <si>
+    <t>title_ESP</t>
+  </si>
+  <si>
+    <t>title_ENG</t>
+  </si>
+  <si>
+    <t>body_CAT</t>
+  </si>
+  <si>
+    <t>body_ESP</t>
+  </si>
+  <si>
+    <t>body_ENG</t>
+  </si>
+  <si>
+    <t>esp body</t>
+  </si>
+  <si>
+    <t>eng body</t>
+  </si>
+  <si>
+    <t>Bueno ,¿Qué te cuentas?</t>
+  </si>
+  <si>
+    <t>What's up mate?</t>
+  </si>
+  <si>
+    <t>Mira a qui noo tenim aquí... bé, he he, Com vas, com vens? Be tampoc crec que ho sàpigues No passa res no passa res, és prou comprensible, ja aniràs veient... o pensant potser... he he. Imagino que t'estàs preguntant les típiques coses que un es pregunta quan es troba a un lloc del qual no en sap res oi? Dooncs t’he de dir que crec fermament que el millor per a tu serà que no te’n digui res. Ho aniràs entenent... espero. I sinó? Tant és! L’únic propòsit de les meves accions és que puguis experimentar amb les normes del lloc on misteriosament (tot i que, amb una mica de sort i cervell, d’aquí no massa t’hauries d’adonar que no tant misteriós) has anat a parar i així siguis una mica més conscient de les teves possibilitats. Parlant clar, no deixaràs de tenir-me al davant fins que no facis amb mi pràcticament tot el que et puc oferir. Sona estrany oi? Ho sé i ho vaig pensar bastant abans de saber que t’ho diria.</t>
+  </si>
+  <si>
+    <t>Ey, molt bones!</t>
+  </si>
+  <si>
+    <t>CAT_Question</t>
+  </si>
+  <si>
+    <t>ESP_Question</t>
+  </si>
+  <si>
+    <t>ENG_Question</t>
+  </si>
+  <si>
+    <t>Cat test question</t>
+  </si>
+  <si>
+    <t>Spanish test question</t>
+  </si>
+  <si>
+    <t>Eng test question</t>
+  </si>
+  <si>
+    <t>Question ID</t>
+  </si>
+  <si>
+    <t>CAT_Answer</t>
+  </si>
+  <si>
+    <t>ESP_Answer</t>
+  </si>
+  <si>
+    <t>ENG_Answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +108,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,10 +215,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,205 +526,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" customWidth="1"/>
-    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" customWidth="1"/>
+    <col min="5" max="7" width="45.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.44140625" customWidth="1"/>
+    <col min="11" max="13" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="17">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="17">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="17">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="H12" s="14"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="17">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="17">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="H14" s="14"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="17">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="H15" s="14"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="17">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="H18" s="14"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="17">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="H19" s="14"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="17">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="H20" s="14"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="5" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
+    <col min="9" max="11" width="79.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="K3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dialogsData.xlsx
+++ b/dialogsData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="QA Structures" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,42 @@
   </si>
   <si>
     <t>ENG_Answer</t>
+  </si>
+  <si>
+    <t>Cat Answer 0</t>
+  </si>
+  <si>
+    <t>Cat Answer 1</t>
+  </si>
+  <si>
+    <t>Cat Answer 2</t>
+  </si>
+  <si>
+    <t>Cat Answer 3</t>
+  </si>
+  <si>
+    <t>Esp_Answer 0</t>
+  </si>
+  <si>
+    <t>Esp_Answer 1</t>
+  </si>
+  <si>
+    <t>Esp_Answer 2</t>
+  </si>
+  <si>
+    <t>Esp_Answer 3</t>
+  </si>
+  <si>
+    <t>Eng_Answer 0</t>
+  </si>
+  <si>
+    <t>Eng_Answer 1</t>
+  </si>
+  <si>
+    <t>Eng_Answer 2</t>
+  </si>
+  <si>
+    <t>Eng_Answer 3</t>
   </si>
 </sst>
 </file>
@@ -528,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +643,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="4"/>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
@@ -617,6 +662,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="4"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
@@ -627,6 +681,15 @@
         <v>2</v>
       </c>
       <c r="J6" s="4"/>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
@@ -637,6 +700,15 @@
         <v>3</v>
       </c>
       <c r="J7" s="4"/>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
@@ -795,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/dialogsData.xlsx
+++ b/dialogsData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QA Structures" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Eng_Answer 3</t>
+  </si>
+  <si>
+    <t>Cat Title test</t>
+  </si>
+  <si>
+    <t>ESP Title test</t>
+  </si>
+  <si>
+    <t>Eng Title test</t>
+  </si>
+  <si>
+    <t>Soc un titol en catalá</t>
+  </si>
+  <si>
+    <t>Soy un titulo en castellano</t>
+  </si>
+  <si>
+    <t>I'm a title on english</t>
   </si>
 </sst>
 </file>
@@ -564,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -867,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,13 +970,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>

--- a/dialogsData.xlsx
+++ b/dialogsData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\GitHub\FattoPrizzerva2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\FattoPrizzerva2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8686"/>
   </bookViews>
   <sheets>
     <sheet name="QA Structures" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>I'm a title on english</t>
+  </si>
+  <si>
+    <t>Object name</t>
+  </si>
+  <si>
+    <t>Introduction_Speach</t>
   </si>
 </sst>
 </file>
@@ -582,19 +588,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" customWidth="1"/>
-    <col min="5" max="7" width="45.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" customWidth="1"/>
-    <col min="11" max="13" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" customWidth="1"/>
+    <col min="4" max="4" width="4.19921875" customWidth="1"/>
+    <col min="5" max="7" width="45.59765625" customWidth="1"/>
+    <col min="8" max="8" width="4.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="1.3984375" customWidth="1"/>
+    <col min="11" max="13" width="43.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -641,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="17">
         <v>0</v>
@@ -671,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="17"/>
       <c r="D5" s="12"/>
@@ -690,7 +696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="17"/>
       <c r="D6" s="12"/>
@@ -709,7 +715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="17"/>
       <c r="D7" s="12"/>
@@ -742,7 +748,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="17">
         <v>1</v>
@@ -751,7 +757,7 @@
       <c r="H9" s="14"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="17">
         <v>2</v>
@@ -760,7 +766,7 @@
       <c r="H10" s="14"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="17">
         <v>3</v>
@@ -769,7 +775,7 @@
       <c r="H11" s="14"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="17">
         <v>4</v>
@@ -778,7 +784,7 @@
       <c r="H12" s="14"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="17">
         <v>5</v>
@@ -787,7 +793,7 @@
       <c r="H13" s="14"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="17">
         <v>6</v>
@@ -796,7 +802,7 @@
       <c r="H14" s="14"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="17">
         <v>7</v>
@@ -805,7 +811,7 @@
       <c r="H15" s="14"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="17">
         <v>8</v>
@@ -814,7 +820,7 @@
       <c r="H16" s="14"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="17">
         <v>9</v>
@@ -823,7 +829,7 @@
       <c r="H17" s="14"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="17">
         <v>10</v>
@@ -832,7 +838,7 @@
       <c r="H18" s="14"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="17">
         <v>11</v>
@@ -841,7 +847,7 @@
       <c r="H19" s="14"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="17">
         <v>12</v>
@@ -850,27 +856,27 @@
       <c r="H20" s="14"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>17</v>
       </c>
@@ -883,211 +889,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="2" customWidth="1"/>
-    <col min="9" max="11" width="79.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.09765625" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="8" width="23.59765625" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="12" width="79.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="199.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="I17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dialogsData.xlsx
+++ b/dialogsData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\FattoPrizzerva2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\GitHub\FattoPrizzerva2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8686"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22116" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="QA Structures" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -96,9 +96,6 @@
     <t>ENG_Answer</t>
   </si>
   <si>
-    <t>Cat Answer 0</t>
-  </si>
-  <si>
     <t>Cat Answer 1</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Cat Answer 3</t>
   </si>
   <si>
-    <t>Esp_Answer 0</t>
-  </si>
-  <si>
     <t>Esp_Answer 1</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Esp_Answer 3</t>
   </si>
   <si>
-    <t>Eng_Answer 0</t>
-  </si>
-  <si>
     <t>Eng_Answer 1</t>
   </si>
   <si>
@@ -154,6 +145,99 @@
   </si>
   <si>
     <t>Introduction_Speach</t>
+  </si>
+  <si>
+    <t>Test speach</t>
+  </si>
+  <si>
+    <t>Objuect Name</t>
+  </si>
+  <si>
+    <t>Q_1</t>
+  </si>
+  <si>
+    <t>Q_2</t>
+  </si>
+  <si>
+    <t>Question Name</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>Cat test question 2</t>
+  </si>
+  <si>
+    <t>Spanish test question 2</t>
+  </si>
+  <si>
+    <t>English test question 2</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>A_5</t>
+  </si>
+  <si>
+    <t>A_6</t>
+  </si>
+  <si>
+    <t>A_7</t>
+  </si>
+  <si>
+    <t>A_8</t>
+  </si>
+  <si>
+    <t>Cat Answer 4</t>
+  </si>
+  <si>
+    <t>Esp_Answer 4</t>
+  </si>
+  <si>
+    <t>Eng_Answer 4</t>
+  </si>
+  <si>
+    <t>Cat Answer 5</t>
+  </si>
+  <si>
+    <t>Esp_Answer 5</t>
+  </si>
+  <si>
+    <t>Eng_Answer 5</t>
+  </si>
+  <si>
+    <t>Cat Answer 6</t>
+  </si>
+  <si>
+    <t>Esp_Answer 6</t>
+  </si>
+  <si>
+    <t>Eng_Answer 6</t>
+  </si>
+  <si>
+    <t>Cat Answer 7</t>
+  </si>
+  <si>
+    <t>Esp_Answer 7</t>
+  </si>
+  <si>
+    <t>Eng_Answer 7</t>
+  </si>
+  <si>
+    <t>Cat Answer 8</t>
+  </si>
+  <si>
+    <t>Esp_Answer 8</t>
+  </si>
+  <si>
+    <t>Eng_Answer 8</t>
   </si>
 </sst>
 </file>
@@ -275,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -288,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -305,6 +386,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,297 +676,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M25"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.19921875" customWidth="1"/>
-    <col min="4" max="4" width="4.19921875" customWidth="1"/>
-    <col min="5" max="7" width="45.59765625" customWidth="1"/>
-    <col min="8" max="8" width="4.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" customWidth="1"/>
-    <col min="10" max="10" width="1.3984375" customWidth="1"/>
-    <col min="11" max="13" width="43.59765625" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.21875" customWidth="1"/>
+    <col min="6" max="8" width="45.5546875" customWidth="1"/>
+    <col min="9" max="9" width="4.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="1.44140625" customWidth="1"/>
+    <col min="13" max="15" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="17">
+    <row r="4" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="17">
+      <c r="I4" s="13"/>
+      <c r="J4" s="16">
         <v>0</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" t="s">
+      <c r="K4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="11"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="16">
+        <v>2</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17">
+    <row r="7" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="16">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="17">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="H10" s="14"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="17">
+      <c r="D9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="H12" s="14"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="17">
+      <c r="K9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="11"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16">
         <v>5</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="17">
+      <c r="K10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="11"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="16">
         <v>6</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="H14" s="14"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="17">
+      <c r="K11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="11"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="16">
         <v>7</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="H15" s="14"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="17">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="H16" s="14"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="17">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="17">
-        <v>10</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="H18" s="14"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="17">
-        <v>11</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="H19" s="14"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="17">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="I15" s="13"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="11"/>
+      <c r="I16" s="13"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="11"/>
+      <c r="I17" s="13"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="11"/>
+      <c r="I20" s="13"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>17</v>
       </c>
@@ -892,19 +1081,19 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="3.09765625" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="8" width="23.59765625" customWidth="1"/>
+    <col min="6" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="12" width="79.59765625" customWidth="1"/>
+    <col min="10" max="12" width="79.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
@@ -926,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
@@ -949,22 +1138,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="199.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="199.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="6"/>
@@ -978,37 +1167,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>37</v>
+      <c r="D5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6">
-        <v>2</v>
-      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1018,11 +1207,8 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1032,11 +1218,8 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8">
-        <v>4</v>
-      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1046,59 +1229,47 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9">
-        <v>5</v>
-      </c>
       <c r="E9" s="4"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10">
-        <v>6</v>
-      </c>
       <c r="E10" s="4"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11">
-        <v>7</v>
-      </c>
       <c r="E11" s="4"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12">
-        <v>8</v>
-      </c>
       <c r="E12" s="4"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="E13" s="4"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="E14" s="4"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="E15" s="4"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="E16" s="4"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" ht="99.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="E17" s="4"/>
       <c r="I17" s="6"/>
